--- a/experiment_data/best_model/best_model_input.xlsx
+++ b/experiment_data/best_model/best_model_input.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_703550B5D300DE422FBA2911595ED87656CDC3CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08BF1CC2-E03E-CC4C-B5A3-1C06D060AE51}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\Codenames Progetto PDE\Codenames-LLM\experiment_data\best_model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60344101-74C9-4355-9CBB-98ACFA038C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
   <si>
     <t>red_model</t>
   </si>
@@ -75,7 +80,7 @@
     <t>grok-claude</t>
   </si>
   <si>
-    <t>claude-3-5-sonnet-last</t>
+    <t>claude-3-5-sonnet-latest</t>
   </si>
 </sst>
 </file>
@@ -138,7 +143,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,22 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="A2" sqref="A2:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.96484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.421875" customWidth="1"/>
-    <col min="5" max="5" width="20.84765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.92578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,79 +496,79 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -571,95 +576,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -667,95 +672,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -763,95 +768,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -859,116 +864,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
